--- a/data/trans_bre/P38C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Habitat-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8211562081182051</v>
+        <v>0.9944200055558785</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.138911026483374</v>
+        <v>2.154013212148546</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.009710580725981813</v>
+        <v>0.01178183645276646</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.02405884365596233</v>
+        <v>0.02507731736160022</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.528508248932599</v>
+        <v>8.861431304021746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.36510445035413</v>
+        <v>10.84280318058339</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1054058629419236</v>
+        <v>0.1087635453556301</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1250917572658179</v>
+        <v>0.1340021481131778</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0.09726976370384702</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.09751143719981446</v>
+        <v>0.09751143719981445</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.986001856016065</v>
+        <v>4.77355853189279</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.799312017669675</v>
+        <v>3.819692078968911</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05831442392673878</v>
+        <v>0.05689982055045038</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0471160306830358</v>
+        <v>0.04964343643826563</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.97129634962827</v>
+        <v>11.0110061709465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.49837264347266</v>
+        <v>11.19528340725241</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1367017912825478</v>
+        <v>0.1370227087256976</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1540008328625037</v>
+        <v>0.1510573483497801</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.299348730807463</v>
+        <v>3.266043476382239</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.990811216153389</v>
+        <v>3.264212127895867</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.0397437874952131</v>
+        <v>0.04061027022977227</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.03719219040516925</v>
+        <v>0.04053127195878281</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.35532611513267</v>
+        <v>10.9412923802548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.51035146142211</v>
+        <v>12.74956726427732</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1470171337310788</v>
+        <v>0.1431981370814149</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1665541558916431</v>
+        <v>0.1702085792174771</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.04808898396220144</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.09113790967717443</v>
+        <v>0.09113790967717444</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7298838359126446</v>
+        <v>0.135909326539228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.998582023298018</v>
+        <v>3.537664648900895</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.008998678819835827</v>
+        <v>0.001755619273195213</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03652774656080086</v>
+        <v>0.04366568097242896</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.265198452630911</v>
+        <v>7.4318431063614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.76281435270953</v>
+        <v>11.11140199539361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0929222763004342</v>
+        <v>0.09492646817820138</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1403692058128677</v>
+        <v>0.1452091272930575</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>5.96663150713227</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.186119106534539</v>
+        <v>7.186119106534528</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.07323359947463934</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.09055344611489202</v>
+        <v>0.09055344611489187</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.253840705342325</v>
+        <v>4.197141439436405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.18237495872567</v>
+        <v>5.148450608193945</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.05163883296471231</v>
+        <v>0.05065910529043836</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06419151541831064</v>
+        <v>0.06344289468512533</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.645241890468128</v>
+        <v>7.856512911503446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.307003031380546</v>
+        <v>9.298026946054122</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.09555481217854778</v>
+        <v>0.09731316709498382</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1192602839145287</v>
+        <v>0.1187628384193022</v>
       </c>
     </row>
     <row r="19">
